--- a/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C14.xlsx
+++ b/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4922520-29BF-4C18-A7C5-BDBB5AFAFC81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39DA690-C139-4380-9258-1476A792E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>additional</t>
   </si>
   <si>
-    <t>2024-02-16</t>
+    <t>2024-04-16</t>
   </si>
 </sst>
 </file>
@@ -319,9 +319,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -359,7 +359,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -465,7 +465,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -607,7 +607,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C14.xlsx
+++ b/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A39DA690-C139-4380-9258-1476A792E203}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7754CA-4B63-493D-B0FF-2B117722BB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10545" yWindow="2985" windowWidth="12915" windowHeight="12615" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -171,9 +171,6 @@
     <t>formType</t>
   </si>
   <si>
-    <t>tgv-1223s-a</t>
-  </si>
-  <si>
     <t>0</t>
   </si>
   <si>
@@ -252,7 +249,10 @@
     <t>additional</t>
   </si>
   <si>
-    <t>2024-04-16</t>
+    <t>tgv-1223s-a54</t>
+  </si>
+  <si>
+    <t>2024-07-01</t>
   </si>
 </sst>
 </file>
@@ -619,7 +619,7 @@
   <dimension ref="A1:BD2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,71 +824,71 @@
     </row>
     <row r="2" spans="1:53" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>48</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>51</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>52</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="T2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="T2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="U2" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="V2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="Y2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
@@ -896,47 +896,47 @@
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
       <c r="AE2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AF2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AJ2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AK2" s="2" t="s">
+      <c r="AL2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AL2" s="2" t="s">
+      <c r="AM2" s="2" t="s">
         <v>70</v>
-      </c>
-      <c r="AM2" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="AN2" s="2"/>
       <c r="AP2" s="2"/>
       <c r="AQ2" s="2"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AT2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="AU2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV2" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="AU2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="AV2" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="AW2" s="2"/>
       <c r="AX2" s="2"/>

--- a/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C14.xlsx
+++ b/Data Files/Input Validation/13. sendformtype/Auto_SendFormType_C14.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Chang Date\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7754CA-4B63-493D-B0FF-2B117722BB71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EAEB2B-E247-4024-9036-07E4244261C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="12915" windowHeight="12660" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="7305" windowHeight="13260" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -252,7 +252,7 @@
     <t>tgv-1223s-a54</t>
   </si>
   <si>
-    <t>2024-07-01</t>
+    <t>2024-08-16</t>
   </si>
 </sst>
 </file>
